--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/C DiffDAGOLS 2010-01-31 to 2020-02-29 parallel0.1.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/C DiffDAGOLS 2010-01-31 to 2020-02-29 parallel0.1.xlsx
@@ -34,13 +34,13 @@
     <t>-0.27***</t>
   </si>
   <si>
-    <t>-2.821***</t>
-  </si>
-  <si>
-    <t>-0.012*</t>
-  </si>
-  <si>
-    <t>-0.467***</t>
+    <t>-2.82***</t>
+  </si>
+  <si>
+    <t>-0.01*</t>
+  </si>
+  <si>
+    <t>-0.47***</t>
   </si>
 </sst>
 </file>
